--- a/Dokumente/Arbeitsaufteilung Termine.xlsx
+++ b/Dokumente/Arbeitsaufteilung Termine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Kuan Huang Lun</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Zeitaufzeichnung und Zeitschätzung</t>
+  </si>
+  <si>
+    <t>x außer Huang</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,16 +186,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="27">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -204,6 +214,8 @@
     <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -215,6 +227,8 @@
     <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,7 +561,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -558,7 +572,7 @@
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -662,6 +676,9 @@
       <c r="H5" s="1">
         <v>41619</v>
       </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
@@ -681,6 +698,9 @@
       </c>
       <c r="F6" s="1">
         <v>41619</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -696,6 +716,9 @@
       <c r="F7" s="1">
         <v>41619</v>
       </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
@@ -710,6 +733,9 @@
       <c r="F8" s="1">
         <v>41619</v>
       </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -723,6 +749,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="1">
         <v>41619</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -737,6 +766,9 @@
       </c>
       <c r="F10" s="1">
         <v>41619</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -752,6 +784,9 @@
       <c r="F11" s="1">
         <v>41619</v>
       </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
@@ -766,6 +801,9 @@
       <c r="F12" s="1">
         <v>41619</v>
       </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -779,6 +817,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="1">
         <v>41619</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -793,6 +834,9 @@
       </c>
       <c r="F14" s="1">
         <v>41619</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
